--- a/items_data/fb_sm.xlsx
+++ b/items_data/fb_sm.xlsx
@@ -74,12 +74,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -457,49 +463,458 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.52" customWidth="1" style="2" min="1" max="1025"/>
+    <col width="35.05" customWidth="1" style="4" min="1" max="1"/>
+    <col width="14.08" customWidth="1" style="4" min="2" max="2"/>
+    <col width="20.3" customWidth="1" style="4" min="3" max="3"/>
+    <col width="11.52" customWidth="1" style="4" min="4" max="6"/>
+    <col width="61.73" customWidth="1" style="4" min="7" max="7"/>
+    <col width="17.96" customWidth="1" style="4" min="8" max="8"/>
+    <col width="11.52" customWidth="1" style="4" min="9" max="1025"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="3">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="12.8" customHeight="1" s="5">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Item Series</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Short Name</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Styles</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Url</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>Img path</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>Short URL</t>
         </is>
       </c>
     </row>
+    <row r="2"/>
+    <row r="3" ht="12.8" customHeight="1" s="5">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>new!
+squishmallows™ plush toy 8in - series 27
+max
+mitzie
+$5.00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>archer</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8in</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>archer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.fivebelow.com/products/squishmallows-plush-toy-8in-series-27</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="5">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>new!
+squishmallows™ plush toy 8in - series 27
+max
+mitzie
+$5.00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>reginald</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8in</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>reginald</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.fivebelow.com/products/squishmallows-plush-toy-8in-series-27</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>new!
+squishmallows™ plush toy 8in - series 27
+max
+mitzie
+$5.00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$5.00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8in</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.fivebelow.com/products/squishmallows-plush-toy-8in-series-27</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>134005-02_A.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Five Below</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="5">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>new!
+squishmallows™ plush toy 8in - series 27
+max
+mitzie
+$5.00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mitzie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$5.00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8in</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>mitzie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.fivebelow.com/products/squishmallows-plush-toy-8in-series-27</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>134005-03_A.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Five Below</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="5">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>new!
+squishmallows™ plush toy 8in - series 27
+max
+mitzie
+$5.00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>elda</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8in</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>elda</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.fivebelow.com/products/squishmallows-plush-toy-8in-series-27</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="5">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>new!
+squishmallows™ plush toy 8in - series 27
+max
+mitzie
+$5.00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>honeydew</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8in</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>honeydew</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.fivebelow.com/products/squishmallows-plush-toy-8in-series-27</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="12.8" customHeight="1" s="5">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>new!
+squishmallows™ plush toy 8in - series 27
+max
+mitzie
+$5.00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>bri</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8in</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>bri</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.fivebelow.com/products/squishmallows-plush-toy-8in-series-27</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="5">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>new!
+squishmallows™ plush toy 8in - series 27
+max
+mitzie
+$5.00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>hallie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8in</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>hallie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.fivebelow.com/products/squishmallows-plush-toy-8in-series-27</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" s="5"/>
+    <row r="12" ht="12.8" customHeight="1" s="5"/>
+    <row r="13" ht="57.45" customHeight="1" s="5"/>
+    <row r="14" ht="12.8" customHeight="1" s="5"/>
+    <row r="15" ht="12.8" customHeight="1" s="5"/>
+    <row r="16" ht="12.8" customHeight="1" s="5"/>
+    <row r="17" ht="12.8" customHeight="1" s="5"/>
+    <row r="18" ht="12.8" customHeight="1" s="5"/>
+    <row r="19" ht="12.8" customHeight="1" s="5"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/items_data/fb_sm.xlsx
+++ b/items_data/fb_sm.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
@@ -532,45 +532,50 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>new!
-squishmallows™ plush toy 8in - series 27
-max
-mitzie
+narwhal squishmallows
+Purple/Blue
+Rainbow
 $5.00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>archer</t>
+          <t>Purple/Blue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8in</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>archer</t>
+          <t>Purple/Blue</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.fivebelow.com/products/squishmallows-plush-toy-8in-series-27</t>
+          <t>https://www.fivebelow.com/products/narwhal-squishmallows</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>118814-00_A.jpg.jpg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Five Below</t>
         </is>
       </c>
     </row>
@@ -578,334 +583,59 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>new!
-squishmallows™ plush toy 8in - series 27
-max
-mitzie
+narwhal squishmallows
+Purple/Blue
+Rainbow
 $5.00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>reginald</t>
+          <t>Rainbow</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8in</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>reginald</t>
+          <t>Rainbow</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.fivebelow.com/products/squishmallows-plush-toy-8in-series-27</t>
+          <t>https://www.fivebelow.com/products/narwhal-squishmallows</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>118814-01_A.jpg.jpg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Five Below</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>new!
-squishmallows™ plush toy 8in - series 27
-max
-mitzie
-$5.00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>$5.00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8in</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.fivebelow.com/products/squishmallows-plush-toy-8in-series-27</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>134005-02_A.jpg.jpg</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Five Below</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="5">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>new!
-squishmallows™ plush toy 8in - series 27
-max
-mitzie
-$5.00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mitzie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>$5.00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8in</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>mitzie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.fivebelow.com/products/squishmallows-plush-toy-8in-series-27</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>134005-03_A.jpg.jpg</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Five Below</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="12.8" customHeight="1" s="5">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>new!
-squishmallows™ plush toy 8in - series 27
-max
-mitzie
-$5.00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>elda</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8in</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>elda</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.fivebelow.com/products/squishmallows-plush-toy-8in-series-27</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="12.8" customHeight="1" s="5">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>new!
-squishmallows™ plush toy 8in - series 27
-max
-mitzie
-$5.00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>honeydew</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8in</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>honeydew</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.fivebelow.com/products/squishmallows-plush-toy-8in-series-27</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="12.8" customHeight="1" s="5">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>new!
-squishmallows™ plush toy 8in - series 27
-max
-mitzie
-$5.00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>bri</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8in</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>bri</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.fivebelow.com/products/squishmallows-plush-toy-8in-series-27</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="12.8" customHeight="1" s="5">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>new!
-squishmallows™ plush toy 8in - series 27
-max
-mitzie
-$5.00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>hallie</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8in</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>hallie</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.fivebelow.com/products/squishmallows-plush-toy-8in-series-27</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
+    <row r="5" ht="12.8" customHeight="1" s="5"/>
+    <row r="6" ht="12.8" customHeight="1" s="5"/>
+    <row r="7" ht="12.8" customHeight="1" s="5"/>
+    <row r="8" ht="12.8" customHeight="1" s="5"/>
+    <row r="9" ht="12.8" customHeight="1" s="5"/>
+    <row r="10" ht="12.8" customHeight="1" s="5"/>
     <row r="11" ht="12.8" customHeight="1" s="5"/>
     <row r="12" ht="12.8" customHeight="1" s="5"/>
     <row r="13" ht="57.45" customHeight="1" s="5"/>

--- a/items_data/fb_sm.xlsx
+++ b/items_data/fb_sm.xlsx
@@ -74,7 +74,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -83,9 +83,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -463,73 +460,72 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="2:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="35.05" customWidth="1" style="4" min="1" max="1"/>
-    <col width="14.08" customWidth="1" style="4" min="2" max="2"/>
-    <col width="20.3" customWidth="1" style="4" min="3" max="3"/>
-    <col width="11.52" customWidth="1" style="4" min="4" max="6"/>
-    <col width="61.73" customWidth="1" style="4" min="7" max="7"/>
-    <col width="17.96" customWidth="1" style="4" min="8" max="8"/>
-    <col width="11.52" customWidth="1" style="4" min="9" max="1025"/>
+    <col width="35.05" customWidth="1" style="3" min="1" max="1"/>
+    <col width="14.08" customWidth="1" style="3" min="2" max="2"/>
+    <col width="20.3" customWidth="1" style="3" min="3" max="3"/>
+    <col width="11.52" customWidth="1" style="3" min="4" max="6"/>
+    <col width="61.73" customWidth="1" style="3" min="7" max="7"/>
+    <col width="17.96" customWidth="1" style="3" min="8" max="8"/>
+    <col width="11.52" customWidth="1" style="3" min="9" max="1025"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="5">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" ht="12.8" customHeight="1" s="4">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Item Series</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Short Name</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Styles</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Url</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>Img path</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Short URL</t>
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3" ht="12.8" customHeight="1" s="5">
-      <c r="A3" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>new!
 narwhal squishmallows
@@ -538,49 +534,49 @@
 $5.00</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Purple/Blue</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Purple/Blue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://www.fivebelow.com/products/narwhal-squishmallows</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>118814-00_A.jpg.jpg</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Five Below</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="5">
-      <c r="A4" t="inlineStr">
+    <row r="3" ht="12.8" customHeight="1" s="4">
+      <c r="A3" t="inlineStr">
         <is>
           <t>new!
 narwhal squishmallows
@@ -589,62 +585,63 @@
 $5.00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Rainbow</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Rainbow</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://www.fivebelow.com/products/narwhal-squishmallows</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>118814-01_A.jpg.jpg</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Five Below</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="5"/>
-    <row r="6" ht="12.8" customHeight="1" s="5"/>
-    <row r="7" ht="12.8" customHeight="1" s="5"/>
-    <row r="8" ht="12.8" customHeight="1" s="5"/>
-    <row r="9" ht="12.8" customHeight="1" s="5"/>
-    <row r="10" ht="12.8" customHeight="1" s="5"/>
-    <row r="11" ht="12.8" customHeight="1" s="5"/>
-    <row r="12" ht="12.8" customHeight="1" s="5"/>
-    <row r="13" ht="57.45" customHeight="1" s="5"/>
-    <row r="14" ht="12.8" customHeight="1" s="5"/>
-    <row r="15" ht="12.8" customHeight="1" s="5"/>
-    <row r="16" ht="12.8" customHeight="1" s="5"/>
-    <row r="17" ht="12.8" customHeight="1" s="5"/>
-    <row r="18" ht="12.8" customHeight="1" s="5"/>
-    <row r="19" ht="12.8" customHeight="1" s="5"/>
+    <row r="4" ht="12.8" customHeight="1" s="4"/>
+    <row r="5" ht="12.8" customHeight="1" s="4"/>
+    <row r="6" ht="12.8" customHeight="1" s="4"/>
+    <row r="7" ht="12.8" customHeight="1" s="4"/>
+    <row r="8" ht="12.8" customHeight="1" s="4"/>
+    <row r="9" ht="12.8" customHeight="1" s="4"/>
+    <row r="10" ht="12.8" customHeight="1" s="4"/>
+    <row r="11" ht="12.8" customHeight="1" s="4"/>
+    <row r="12" ht="12.8" customHeight="1" s="4"/>
+    <row r="13" ht="57.45" customHeight="1" s="4"/>
+    <row r="14" ht="12.8" customHeight="1" s="4"/>
+    <row r="15" ht="12.8" customHeight="1" s="4"/>
+    <row r="16" ht="12.8" customHeight="1" s="4"/>
+    <row r="17" ht="12.8" customHeight="1" s="4"/>
+    <row r="18" ht="12.8" customHeight="1" s="4"/>
+    <row r="19" ht="12.8" customHeight="1" s="4"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/items_data/fb_sm.xlsx
+++ b/items_data/fb_sm.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="2:3"/>
@@ -524,108 +524,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>new!
-narwhal squishmallows
-Purple/Blue
-Rainbow
-$5.00</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Purple/Blue</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Purple/Blue</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.fivebelow.com/products/narwhal-squishmallows</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>118814-00_A.jpg.jpg</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Five Below</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="12.8" customHeight="1" s="4">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>new!
-narwhal squishmallows
-Purple/Blue
-Rainbow
-$5.00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Rainbow</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Rainbow</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.fivebelow.com/products/narwhal-squishmallows</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>118814-01_A.jpg.jpg</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Five Below</t>
-        </is>
-      </c>
-    </row>
+    <row r="3" ht="12.8" customHeight="1" s="4"/>
     <row r="4" ht="12.8" customHeight="1" s="4"/>
     <row r="5" ht="12.8" customHeight="1" s="4"/>
     <row r="6" ht="12.8" customHeight="1" s="4"/>

--- a/items_data/fb_sm.xlsx
+++ b/items_data/fb_sm.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="2:3"/>
@@ -524,7 +524,97 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="4"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>narwhal squishmallows
+$5.00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Purple/Blue</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Purple/Blue</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.fivebelow.com/products/narwhal-squishmallows</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="4">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>narwhal squishmallows
+$5.00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Rainbow</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Rainbow</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.fivebelow.com/products/narwhal-squishmallows</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>118814-01_A.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Five Below</t>
+        </is>
+      </c>
+    </row>
     <row r="4" ht="12.8" customHeight="1" s="4"/>
     <row r="5" ht="12.8" customHeight="1" s="4"/>
     <row r="6" ht="12.8" customHeight="1" s="4"/>

--- a/items_data/fb_sm.xlsx
+++ b/items_data/fb_sm.xlsx
@@ -74,7 +74,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -83,6 +83,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -468,63 +471,63 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="35.05" customWidth="1" style="3" min="1" max="1"/>
-    <col width="14.08" customWidth="1" style="3" min="2" max="2"/>
-    <col width="20.3" customWidth="1" style="3" min="3" max="3"/>
-    <col width="11.52" customWidth="1" style="3" min="4" max="6"/>
-    <col width="61.73" customWidth="1" style="3" min="7" max="7"/>
-    <col width="17.96" customWidth="1" style="3" min="8" max="8"/>
-    <col width="11.52" customWidth="1" style="3" min="9" max="1025"/>
+    <col width="35.05" customWidth="1" style="4" min="1" max="1"/>
+    <col width="14.08" customWidth="1" style="4" min="2" max="2"/>
+    <col width="20.3" customWidth="1" style="4" min="3" max="3"/>
+    <col width="11.52" customWidth="1" style="4" min="4" max="6"/>
+    <col width="61.73" customWidth="1" style="4" min="7" max="7"/>
+    <col width="17.96" customWidth="1" style="4" min="8" max="8"/>
+    <col width="11.52" customWidth="1" style="4" min="9" max="1025"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="4">
-      <c r="A1" s="5" t="inlineStr">
+    <row r="1" ht="12.8" customHeight="1" s="5">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Item Series</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Short Name</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Styles</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Url</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>Img path</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>Short URL</t>
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="12.8" customHeight="1" s="5">
       <c r="A2" t="inlineStr">
         <is>
           <t>narwhal squishmallows
@@ -567,7 +570,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="4">
+    <row r="3" ht="12.8" customHeight="1" s="5">
       <c r="A3" t="inlineStr">
         <is>
           <t>narwhal squishmallows
@@ -615,22 +618,22 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="4"/>
-    <row r="5" ht="12.8" customHeight="1" s="4"/>
-    <row r="6" ht="12.8" customHeight="1" s="4"/>
-    <row r="7" ht="12.8" customHeight="1" s="4"/>
-    <row r="8" ht="12.8" customHeight="1" s="4"/>
-    <row r="9" ht="12.8" customHeight="1" s="4"/>
-    <row r="10" ht="12.8" customHeight="1" s="4"/>
-    <row r="11" ht="12.8" customHeight="1" s="4"/>
-    <row r="12" ht="12.8" customHeight="1" s="4"/>
-    <row r="13" ht="57.45" customHeight="1" s="4"/>
-    <row r="14" ht="12.8" customHeight="1" s="4"/>
-    <row r="15" ht="12.8" customHeight="1" s="4"/>
-    <row r="16" ht="12.8" customHeight="1" s="4"/>
-    <row r="17" ht="12.8" customHeight="1" s="4"/>
-    <row r="18" ht="12.8" customHeight="1" s="4"/>
-    <row r="19" ht="12.8" customHeight="1" s="4"/>
+    <row r="4" ht="12.8" customHeight="1" s="5"/>
+    <row r="5" ht="12.8" customHeight="1" s="5"/>
+    <row r="6" ht="12.8" customHeight="1" s="5"/>
+    <row r="7" ht="12.8" customHeight="1" s="5"/>
+    <row r="8" ht="12.8" customHeight="1" s="5"/>
+    <row r="9" ht="12.8" customHeight="1" s="5"/>
+    <row r="10" ht="12.8" customHeight="1" s="5"/>
+    <row r="11" ht="12.8" customHeight="1" s="5"/>
+    <row r="12" ht="12.8" customHeight="1" s="5"/>
+    <row r="13" ht="57.45" customHeight="1" s="5"/>
+    <row r="14" ht="12.8" customHeight="1" s="5"/>
+    <row r="15" ht="12.8" customHeight="1" s="5"/>
+    <row r="16" ht="12.8" customHeight="1" s="5"/>
+    <row r="17" ht="12.8" customHeight="1" s="5"/>
+    <row r="18" ht="12.8" customHeight="1" s="5"/>
+    <row r="19" ht="12.8" customHeight="1" s="5"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/items_data/fb_sm.xlsx
+++ b/items_data/fb_sm.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="2:3"/>
@@ -528,98 +528,177 @@
       </c>
     </row>
     <row r="2" ht="12.8" customHeight="1" s="5">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>narwhal squishmallows
 $5.00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Purple/Blue</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Purple/Blue</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>https://www.fivebelow.com/products/narwhal-squishmallows</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="5">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>narwhal squishmallows
 $5.00</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Rainbow</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>Rainbow</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>https://www.fivebelow.com/products/narwhal-squishmallows</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>118814-01_A.jpg.jpg</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>Five Below</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="5"/>
-    <row r="5" ht="12.8" customHeight="1" s="5"/>
+    <row r="4" ht="12.8" customHeight="1" s="5">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Purple/Blue</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Purple/Blue</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.fivebelow.com/products/narwhal-squishmallows</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rainbow</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Rainbow</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.fivebelow.com/products/narwhal-squishmallows</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>118814-01_A.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Five Below</t>
+        </is>
+      </c>
+    </row>
     <row r="6" ht="12.8" customHeight="1" s="5"/>
     <row r="7" ht="12.8" customHeight="1" s="5"/>
     <row r="8" ht="12.8" customHeight="1" s="5"/>
